--- a/WKRDB-EST2/WGRDBES_Timeline.xlsx
+++ b/WKRDB-EST2/WGRDBES_Timeline.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="WGRDBESGOV 2020" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -246,6 +247,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>496986</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>143320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="12079386" cy="3191320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>269412</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>13818</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>91031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="879012" y="2909788"/>
+          <a:ext cx="11326806" cy="4610743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:A25"/>
     </sheetView>
   </sheetViews>
@@ -1336,4 +1418,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>